--- a/Excels/xlsx/Example.xlsx
+++ b/Excels/xlsx/Example.xlsx
@@ -71,22 +71,66 @@
     <t>exampleArray3</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>测试int</t>
-  </si>
-  <si>
-    <t>测试String</t>
-  </si>
-  <si>
-    <t>测试float</t>
-  </si>
-  <si>
-    <t>测试bool</t>
+    <t>exampleClient</t>
+  </si>
+  <si>
+    <t>exampleServer</t>
+  </si>
+  <si>
+    <r>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>String</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>float</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bool</t>
+    </r>
   </si>
   <si>
     <t>测试数组</t>
@@ -104,10 +148,10 @@
     <t>example</t>
   </si>
   <si>
-    <t>{1,2,3}</t>
-  </si>
-  <si>
-    <t>{1.5}</t>
+    <t>{1}</t>
+  </si>
+  <si>
+    <t>{1.5,2.5}</t>
   </si>
   <si>
     <t>{a,b,c}</t>
@@ -119,7 +163,7 @@
     <t>server1</t>
   </si>
   <si>
-    <t>{1.5,2.5,3.5}</t>
+    <t>{a,,c}</t>
   </si>
   <si>
     <t>client2</t>
@@ -137,11 +181,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,26 +201,144 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,45 +350,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,75 +359,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,25 +373,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,157 +541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,54 +564,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,11 +582,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +622,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,10 +672,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,141 +684,147 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1087,7 +1149,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C6" sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" outlineLevelRow="5"/>
@@ -1102,194 +1164,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>1.5</v>
       </c>
-      <c r="D5" s="1" t="b">
+      <c r="D5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>1.5</v>
       </c>
-      <c r="D6" s="1" t="b">
+      <c r="D6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Excels/xlsx/Example.xlsx
+++ b/Excels/xlsx/Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="23925" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>-</t>
   </si>
@@ -50,6 +50,9 @@
     <t>array&lt;string&gt;</t>
   </si>
   <si>
+    <t>ExampleEnum</t>
+  </si>
+  <si>
     <t>exampleInt</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>exampleArray3</t>
   </si>
   <si>
+    <t>exampleEnum</t>
+  </si>
+  <si>
     <t>exampleClient</t>
   </si>
   <si>
@@ -78,6 +84,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -92,6 +104,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -106,6 +124,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -120,6 +144,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>测试</t>
     </r>
     <r>
@@ -136,6 +166,9 @@
     <t>测试数组</t>
   </si>
   <si>
+    <t>测试枚举</t>
+  </si>
+  <si>
     <t>测试忽略列</t>
   </si>
   <si>
@@ -157,6 +190,9 @@
     <t>{a,b,c}</t>
   </si>
   <si>
+    <t>Type1</t>
+  </si>
+  <si>
     <t>client1</t>
   </si>
   <si>
@@ -164,6 +200,9 @@
   </si>
   <si>
     <t>{a,,c}</t>
+  </si>
+  <si>
+    <t>Type2</t>
   </si>
   <si>
     <t>client2</t>
@@ -213,6 +252,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -220,6 +267,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -228,84 +306,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,6 +364,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -328,37 +381,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,61 +412,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,61 +562,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,55 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +603,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -582,17 +663,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,195 +703,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,24 +1185,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="17.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="7" width="19" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.8333333333333" style="1"/>
+    <col min="3" max="8" width="19" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="18.75" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1186,16 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" ht="18.75" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1218,85 +1260,94 @@
         <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" ht="18.75" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" ht="18.75" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" ht="18.75" spans="1:11">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
         <v>1.5</v>
@@ -1305,25 +1356,28 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
+    <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1337,22 +1391,25 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1374,7 +1431,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
